--- a/soccer/efl.xlsx
+++ b/soccer/efl.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvray\OneDrive\Documents\Web Development\NBA TEAMS\nba_socmed_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/kirt_raynes_spglobal_com/Documents/Documents/Notebooks/NBA Teams/soccer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C44D644-EA2A-4F53-B435-9ABE0ABA971C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3C44D644-EA2A-4F53-B435-9ABE0ABA971C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E0ACCD3-C95C-4D3F-B802-B149F1B9DD8F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feb 2024 EFL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -554,13 +567,16 @@
   </si>
   <si>
     <t>https://www.instagram.com/rotherhamunited/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@stoke.city</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,6 +589,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -607,16 +631,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -920,19 +947,19 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="54" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -970,7 +997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1005,7 +1032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1040,7 +1067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1075,7 +1102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1110,7 +1137,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1145,7 +1172,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1180,7 +1207,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1215,7 +1242,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -1250,7 +1277,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -1285,7 +1312,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -1320,7 +1347,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -1355,7 +1382,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -1390,7 +1417,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -1425,7 +1452,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -1460,7 +1487,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -1495,7 +1522,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>117</v>
       </c>
@@ -1530,7 +1557,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>124</v>
       </c>
@@ -1559,7 +1586,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>127</v>
       </c>
@@ -1594,7 +1621,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -1629,7 +1656,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>141</v>
       </c>
@@ -1642,6 +1669,9 @@
       <c r="D21">
         <v>1200000</v>
       </c>
+      <c r="E21">
+        <v>58300</v>
+      </c>
       <c r="F21">
         <v>1087026</v>
       </c>
@@ -1651,6 +1681,9 @@
       <c r="I21" t="s">
         <v>144</v>
       </c>
+      <c r="J21" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="K21" t="s">
         <v>145</v>
       </c>
@@ -1658,7 +1691,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>147</v>
       </c>
@@ -1693,7 +1726,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>154</v>
       </c>
@@ -1728,7 +1761,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>161</v>
       </c>
@@ -1763,7 +1796,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>168</v>
       </c>
@@ -1799,6 +1832,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J21" r:id="rId1" xr:uid="{63C17531-097D-4850-80D4-CA5E8E6B4244}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>